--- a/config/data/事件相关.xlsx
+++ b/config/data/事件相关.xlsx
@@ -20,6 +20,7 @@
   <authors>
     <author>maliu</author>
     <author>TK</author>
+    <author>barry</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -107,7 +108,75 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-奖励类型1，注三种奖励概率均等，award1概率40%,其他2种各30%</t>
+奖励类型1，5分钟时的奖励(第一次0分钟也是这个奖励)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>barry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>分钟时的奖励</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>barry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>分钟时的奖励</t>
         </r>
       </text>
     </comment>
@@ -318,19 +387,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>400000/2级种子*8/3级种*4/50000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000/3级种子*6/4级种子*2/50000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000/3级种子*8/4级种子*3/50000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表情分三种：哭、正常、笑脸 哭对应各自奖励扣5w  正常不扣   笑脸+10w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000/2级种子*8/3级种*4 + 50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000/3级种子*6/4级种子*2 + 50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000/3级种子*8/4级种子*3 + 50000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -360,6 +429,26 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -821,7 +910,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -929,13 +1018,13 @@
         <v>0.21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -963,7 +1052,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="E16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -972,9 +1061,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
